--- a/presentation/data format.xlsx
+++ b/presentation/data format.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kimffy X\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kimffy X\Documents\GitHub\Jin_DATA606\presentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -92,9 +92,6 @@
     <t>text of the review</t>
   </si>
   <si>
-    <t>a disctionary of the product metadata, e.g., "Format" is "Hardcover"</t>
-  </si>
-  <si>
     <t>helpful votes of the review</t>
   </si>
   <si>
@@ -231,6 +228,9 @@
   </si>
   <si>
     <t>related product details</t>
+  </si>
+  <si>
+    <t>a dictionary of the product metadata, e.g., "Format" is "Hardcover"</t>
   </si>
 </sst>
 </file>
@@ -425,12 +425,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:C13" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:C13" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="A1:C13"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Feature" dataDxfId="9"/>
-    <tableColumn id="2" name="Data Type" dataDxfId="8"/>
-    <tableColumn id="3" name="Description" dataDxfId="7"/>
+    <tableColumn id="1" name="Feature" dataDxfId="7"/>
+    <tableColumn id="2" name="Data Type" dataDxfId="6"/>
+    <tableColumn id="3" name="Description" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -714,7 +714,7 @@
   <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -740,7 +740,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -751,7 +751,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>6</v>
@@ -762,10 +762,10 @@
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -773,10 +773,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -784,10 +784,10 @@
         <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -795,7 +795,7 @@
         <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>21</v>
@@ -806,7 +806,7 @@
         <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>20</v>
@@ -817,7 +817,7 @@
         <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>19</v>
@@ -828,7 +828,7 @@
         <v>13</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>18</v>
@@ -839,7 +839,7 @@
         <v>14</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>17</v>
@@ -847,13 +847,13 @@
     </row>
     <row r="12" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -861,7 +861,7 @@
         <v>15</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>16</v>
@@ -883,208 +883,208 @@
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
   </sheetData>
